--- a/downloads/Template_output.xlsx
+++ b/downloads/Template_output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed760104dc4d70dd/Coding/Python/StreamLit_TB/downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed760104dc4d70dd/Coding/Python/Streamlit_Meter/Streamlit_Meter/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_55B9428B510A1DA48119B7E48CB2088B5C0887FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3C4C7F-A95C-8E4B-BCE9-B2FE192CD114}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_55B9428B510A1DA48119B7E48CB2088B5C0887FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36E9E351-E5B0-0E40-B39E-22A18E6A8A01}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,200 +49,32 @@
     <t>Predicted P (kbar)</t>
   </si>
   <si>
-    <r>
-      <t>SiO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>SiO2</t>
   </si>
   <si>
-    <r>
-      <t>Al</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
+    <t>TiO2</t>
   </si>
   <si>
-    <r>
-      <t>Fe</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
+    <t>Al2O3</t>
   </si>
   <si>
-    <r>
-      <t>Na</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
+    <t>Fe2O3T</t>
   </si>
   <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
+    <t>Na2O</t>
   </si>
   <si>
-    <r>
-      <t>TiO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>K2O</t>
   </si>
   <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
+    <t>P2O5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,13 +97,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -389,6 +214,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,7 +226,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +563,7 @@
   <dimension ref="A1:W644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,35 +579,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="13" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -795,16 +620,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
@@ -825,16 +650,16 @@
         <v>11</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>13</v>
@@ -865,7 +690,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="15"/>
+      <c r="J3" s="10"/>
       <c r="U3"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -878,7 +703,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="15"/>
+      <c r="J4" s="10"/>
       <c r="U4"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -891,7 +716,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="15"/>
+      <c r="J5" s="10"/>
       <c r="U5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -904,7 +729,7 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="10"/>
       <c r="U6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -917,7 +742,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="10"/>
       <c r="U7"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -930,7 +755,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="10"/>
       <c r="U8"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -943,7 +768,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="10"/>
       <c r="U9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -956,7 +781,7 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="10"/>
       <c r="U10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -969,7 +794,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="10"/>
       <c r="U11"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -982,7 +807,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="10"/>
       <c r="U12"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -995,7 +820,7 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="10"/>
       <c r="U13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -1008,7 +833,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="10"/>
       <c r="U14"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -1021,7 +846,7 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="10"/>
       <c r="U15"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -1034,7 +859,7 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="10"/>
       <c r="U16"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -1047,7 +872,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="10"/>
       <c r="U17"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -1060,7 +885,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="15"/>
+      <c r="J18" s="10"/>
       <c r="U18"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -1073,7 +898,7 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="10"/>
       <c r="U19"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -1086,7 +911,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" s="15"/>
+      <c r="J20" s="10"/>
       <c r="U20"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -1099,7 +924,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="10"/>
       <c r="U21"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -1112,7 +937,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" s="15"/>
+      <c r="J22" s="10"/>
       <c r="U22"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -1125,7 +950,7 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="10"/>
       <c r="U23"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -1138,7 +963,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="10"/>
       <c r="U24"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -1151,7 +976,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="15"/>
+      <c r="J25" s="10"/>
       <c r="U25"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -1164,7 +989,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="15"/>
+      <c r="J26" s="10"/>
       <c r="U26"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -1177,7 +1002,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="10"/>
       <c r="U27"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -1190,7 +1015,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="10"/>
       <c r="U28"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -1203,7 +1028,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29" s="15"/>
+      <c r="J29" s="10"/>
       <c r="U29"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -1216,7 +1041,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="10"/>
       <c r="U30"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -1229,7 +1054,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" s="15"/>
+      <c r="J31" s="10"/>
       <c r="U31"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -1242,7 +1067,7 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" s="15"/>
+      <c r="J32" s="10"/>
       <c r="U32"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -1255,7 +1080,7 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="15"/>
+      <c r="J33" s="10"/>
       <c r="U33"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -1268,7 +1093,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34" s="15"/>
+      <c r="J34" s="10"/>
       <c r="U34"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -1281,7 +1106,7 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35" s="15"/>
+      <c r="J35" s="10"/>
       <c r="U35"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -1294,7 +1119,7 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36" s="15"/>
+      <c r="J36" s="10"/>
       <c r="U36"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -1307,7 +1132,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37" s="15"/>
+      <c r="J37" s="10"/>
       <c r="U37"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -1320,7 +1145,7 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38" s="15"/>
+      <c r="J38" s="10"/>
       <c r="U38"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -1333,7 +1158,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" s="15"/>
+      <c r="J39" s="10"/>
       <c r="U39"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -1346,7 +1171,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40" s="15"/>
+      <c r="J40" s="10"/>
       <c r="U40"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -1359,7 +1184,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41" s="15"/>
+      <c r="J41" s="10"/>
       <c r="U41"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -1372,7 +1197,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42" s="15"/>
+      <c r="J42" s="10"/>
       <c r="U42"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -1385,7 +1210,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" s="15"/>
+      <c r="J43" s="10"/>
       <c r="U43"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -1398,7 +1223,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" s="15"/>
+      <c r="J44" s="10"/>
       <c r="U44"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -1411,7 +1236,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45" s="15"/>
+      <c r="J45" s="10"/>
       <c r="U45"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -1424,7 +1249,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46" s="15"/>
+      <c r="J46" s="10"/>
       <c r="U46"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -1437,7 +1262,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47" s="15"/>
+      <c r="J47" s="10"/>
       <c r="U47"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -1450,7 +1275,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="J48" s="15"/>
+      <c r="J48" s="10"/>
       <c r="U48"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -1463,7 +1288,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49" s="15"/>
+      <c r="J49" s="10"/>
       <c r="U49"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -1476,7 +1301,7 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50" s="15"/>
+      <c r="J50" s="10"/>
       <c r="U50"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -1489,7 +1314,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51" s="15"/>
+      <c r="J51" s="10"/>
       <c r="U51"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -1502,7 +1327,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52" s="15"/>
+      <c r="J52" s="10"/>
       <c r="U52"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -1515,7 +1340,7 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="J53" s="15"/>
+      <c r="J53" s="10"/>
       <c r="U53"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -1528,7 +1353,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54" s="15"/>
+      <c r="J54" s="10"/>
       <c r="U54"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -1541,7 +1366,7 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55" s="15"/>
+      <c r="J55" s="10"/>
       <c r="U55"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -1554,7 +1379,7 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56" s="15"/>
+      <c r="J56" s="10"/>
       <c r="U56"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -1567,7 +1392,7 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57" s="15"/>
+      <c r="J57" s="10"/>
       <c r="U57"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -1580,7 +1405,7 @@
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58" s="15"/>
+      <c r="J58" s="10"/>
       <c r="U58"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -1593,7 +1418,7 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59" s="15"/>
+      <c r="J59" s="10"/>
       <c r="U59"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -1606,7 +1431,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60" s="15"/>
+      <c r="J60" s="10"/>
       <c r="U60"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -1619,7 +1444,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
-      <c r="J61" s="15"/>
+      <c r="J61" s="10"/>
       <c r="U61"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -1632,7 +1457,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62" s="15"/>
+      <c r="J62" s="10"/>
       <c r="U62"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -1645,7 +1470,7 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63" s="15"/>
+      <c r="J63" s="10"/>
       <c r="U63"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -1658,7 +1483,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="J64" s="15"/>
+      <c r="J64" s="10"/>
       <c r="U64"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -1671,7 +1496,7 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="J65" s="15"/>
+      <c r="J65" s="10"/>
       <c r="U65"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -1684,7 +1509,7 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66" s="15"/>
+      <c r="J66" s="10"/>
       <c r="U66"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -1697,7 +1522,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67" s="15"/>
+      <c r="J67" s="10"/>
       <c r="U67"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -1710,7 +1535,7 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68" s="15"/>
+      <c r="J68" s="10"/>
       <c r="U68"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -1723,7 +1548,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="J69" s="15"/>
+      <c r="J69" s="10"/>
       <c r="U69"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -1736,7 +1561,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70" s="15"/>
+      <c r="J70" s="10"/>
       <c r="U70"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
@@ -1749,7 +1574,7 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="15"/>
+      <c r="J71" s="10"/>
       <c r="U71"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
